--- a/output/stock_quant_scores/LMT_market_cap.xlsx
+++ b/output/stock_quant_scores/LMT_market_cap.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>112413425664</v>
+        <v>113620443136</v>
       </c>
     </row>
   </sheetData>
